--- a/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en C.Valenciana</t>
+          <t>Consumo de medicamentos para el dolor en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11148</t>
+          <t>11107</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8382</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14439</t>
+          <t>14207</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13698</t>
+          <t>15319</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20781</t>
+          <t>22270</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>27936</t>
+          <t>29816</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23926</t>
+          <t>25380</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32646</t>
+          <t>34754</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>134662</t>
+          <t>151694</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>131371</t>
+          <t>148594</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>137428</t>
+          <t>154191</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>126103</t>
+          <t>149858</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>122110</t>
+          <t>146297</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>129193</t>
+          <t>153248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>260765</t>
+          <t>301552</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>256055</t>
+          <t>296614</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>264775</t>
+          <t>305988</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>92,34%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6714</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9293</t>
+          <t>9771</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12428</t>
+          <t>13313</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10080</t>
+          <t>10829</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15606</t>
+          <t>16394</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>19142</t>
+          <t>20445</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>15548</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22667</t>
+          <t>24606</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74458</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71879</t>
+          <t>80654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76373</t>
+          <t>85301</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>96689</t>
+          <t>109355</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>93511</t>
+          <t>106274</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>99037</t>
+          <t>111839</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>171147</t>
+          <t>192648</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>167622</t>
+          <t>188487</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>174741</t>
+          <t>196075</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,01%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19526</t>
+          <t>18866</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15860</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23518</t>
+          <t>22561</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16230</t>
+          <t>16087</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13192</t>
+          <t>13215</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19483</t>
+          <t>19415</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>35756</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30876</t>
+          <t>30625</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40605</t>
+          <t>40314</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>144330</t>
+          <t>135018</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>140338</t>
+          <t>131323</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>147996</t>
+          <t>138310</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46915</t>
+          <t>45530</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43662</t>
+          <t>42202</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49953</t>
+          <t>48402</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>191245</t>
+          <t>180548</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>186396</t>
+          <t>175187</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>196125</t>
+          <t>184876</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>85,79%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26963</t>
+          <t>26941</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23236</t>
+          <t>23213</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31621</t>
+          <t>31293</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34330</t>
+          <t>36277</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30400</t>
+          <t>32087</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39336</t>
+          <t>42205</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61293</t>
+          <t>63218</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>54720</t>
+          <t>57234</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>68116</t>
+          <t>69940</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>143126</t>
+          <t>142778</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138468</t>
+          <t>138426</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>146853</t>
+          <t>146506</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>142853</t>
+          <t>145913</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>137847</t>
+          <t>139985</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>146783</t>
+          <t>150103</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>285978</t>
+          <t>288691</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>279155</t>
+          <t>281969</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>292551</t>
+          <t>294675</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>83,74%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11115</t>
+          <t>10938</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8432</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14255</t>
+          <t>13896</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37079</t>
+          <t>35444</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32172</t>
+          <t>31338</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41900</t>
+          <t>40215</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>48194</t>
+          <t>46381</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42657</t>
+          <t>40999</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>54295</t>
+          <t>51623</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,83%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>65736</t>
+          <t>63513</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62596</t>
+          <t>60555</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68419</t>
+          <t>66109</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95853</t>
+          <t>89972</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>91032</t>
+          <t>85201</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>100760</t>
+          <t>94078</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>161589</t>
+          <t>153486</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>155488</t>
+          <t>148244</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>167126</t>
+          <t>158868</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,49%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3276</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22552</t>
+          <t>22763</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18679</t>
+          <t>19331</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26363</t>
+          <t>26632</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>24466</t>
+          <t>25655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20708</t>
+          <t>21631</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28931</t>
+          <t>30010</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>43347</t>
+          <t>52711</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41985</t>
+          <t>50644</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44254</t>
+          <t>54020</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>95725</t>
+          <t>99838</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>91914</t>
+          <t>95969</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>99598</t>
+          <t>103270</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>139072</t>
+          <t>152549</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>134607</t>
+          <t>148194</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>142830</t>
+          <t>156573</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>77380</t>
+          <t>77875</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>69840</t>
+          <t>70101</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>85620</t>
+          <t>85196</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>139408</t>
+          <t>142593</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>130194</t>
+          <t>133017</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>148620</t>
+          <t>151559</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>216788</t>
+          <t>220468</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>205851</t>
+          <t>208676</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>230068</t>
+          <t>232833</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>605659</t>
+          <t>629008</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>597419</t>
+          <t>621687</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>613199</t>
+          <t>636782</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>604136</t>
+          <t>640466</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>594924</t>
+          <t>631500</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>613350</t>
+          <t>650042</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1209795</t>
+          <t>1269473</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1196515</t>
+          <t>1257108</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1220732</t>
+          <t>1281265</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>85,99%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52690</t>
+          <t>52133</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84749</t>
+          <t>83057</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93683</t>
+          <t>94130</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>121554</t>
+          <t>121283</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>151465</t>
+          <t>154177</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>195451</t>
+          <t>195976</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>29,44%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>281934</t>
+          <t>283626</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>313993</t>
+          <t>314550</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>177347</t>
+          <t>177618</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>205218</t>
+          <t>204771</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>59,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>68,51%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>470133</t>
+          <t>469608</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>514119</t>
+          <t>511407</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,24%</t>
+          <t>76,84%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50955</t>
+          <t>51898</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82535</t>
+          <t>80244</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71501</t>
+          <t>71227</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96031</t>
+          <t>97280</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>128048</t>
+          <t>127823</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>166878</t>
+          <t>165612</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,35%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>241512</t>
+          <t>243803</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>273092</t>
+          <t>272149</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>164050</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>188580</t>
+          <t>188854</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>417250</t>
+          <t>418516</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>456080</t>
+          <t>456305</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>71,43%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>78,12%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18440</t>
+          <t>19513</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>154638</t>
+          <t>153511</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38903</t>
+          <t>38832</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55759</t>
+          <t>55553</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35026</t>
+          <t>45989</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>214070</t>
+          <t>213983</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>37,35%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>320786</t>
+          <t>321913</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>456984</t>
+          <t>455911</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41805</t>
+          <t>42011</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58661</t>
+          <t>58732</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>358918</t>
+          <t>359005</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>537962</t>
+          <t>526999</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>62,64%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>91,97%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>131398</t>
+          <t>133600</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>175863</t>
+          <t>178805</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>243418</t>
+          <t>242543</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>532941</t>
+          <t>539197</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>382571</t>
+          <t>378802</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>804994</t>
+          <t>772701</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>65,89%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>360292</t>
+          <t>357350</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>404757</t>
+          <t>402555</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>103697</t>
+          <t>97441</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>393220</t>
+          <t>394095</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>367799</t>
+          <t>400092</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>790222</t>
+          <t>793991</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>67,7%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40724</t>
+          <t>39112</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68580</t>
+          <t>66869</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>106455</t>
+          <t>110405</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>226819</t>
+          <t>227541</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>53,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>165729</t>
+          <t>160081</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>279064</t>
+          <t>276413</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>43,52%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>142642</t>
+          <t>144353</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>170498</t>
+          <t>172110</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>197130</t>
+          <t>196408</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>317494</t>
+          <t>313544</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>356107</t>
+          <t>358758</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>469442</t>
+          <t>475090</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>74,8%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12095</t>
+          <t>10688</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46312</t>
+          <t>45457</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>160066</t>
+          <t>158112</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>197007</t>
+          <t>198923</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>181054</t>
+          <t>179763</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>231095</t>
+          <t>229987</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,02%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>120449</t>
+          <t>121304</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>154666</t>
+          <t>156073</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>292961</t>
+          <t>291045</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>329902</t>
+          <t>331856</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>67,33%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>425634</t>
+          <t>426742</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>475675</t>
+          <t>476966</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>72,63%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>299230</t>
+          <t>272456</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>510866</t>
+          <t>508233</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>818161</t>
+          <t>824121</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1332726</t>
+          <t>1331304</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1172040</t>
+          <t>1188731</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1814942</t>
+          <t>1848579</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1569426</t>
+          <t>1572059</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1781062</t>
+          <t>1807836</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>75,44%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>874375</t>
+          <t>875797</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1388940</t>
+          <t>1382980</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2472451</t>
+          <t>2438814</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3115353</t>
+          <t>3098662</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,27%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41638</t>
+          <t>41428</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57552</t>
+          <t>57600</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>48113</t>
+          <t>49218</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66486</t>
+          <t>65800</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>94867</t>
+          <t>94101</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>119349</t>
+          <t>116768</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>28,1%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>147609</t>
+          <t>147561</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>163523</t>
+          <t>163733</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>143910</t>
+          <t>144596</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>162283</t>
+          <t>161178</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>296208</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>320690</t>
+          <t>321456</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>77,36%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24208</t>
+          <t>24212</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37156</t>
+          <t>36958</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50815</t>
+          <t>49899</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>66210</t>
+          <t>67088</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>78129</t>
+          <t>78126</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>98489</t>
+          <t>99010</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87792</t>
+          <t>87990</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100740</t>
+          <t>100736</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>101865</t>
+          <t>100987</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>117260</t>
+          <t>118176</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>194534</t>
+          <t>194013</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>214894</t>
+          <t>214897</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28592</t>
+          <t>28724</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43362</t>
+          <t>43907</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22938</t>
+          <t>22908</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34872</t>
+          <t>35170</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>55436</t>
+          <t>55470</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>74773</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>48,18%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51979</t>
+          <t>51434</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66749</t>
+          <t>66617</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22532</t>
+          <t>22234</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34466</t>
+          <t>34496</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>77972</t>
+          <t>79152</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>97309</t>
+          <t>97275</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>63,68%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38208</t>
+          <t>39429</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57335</t>
+          <t>57469</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67716</t>
+          <t>67033</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>87602</t>
+          <t>86420</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>108611</t>
+          <t>109399</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>138077</t>
+          <t>137112</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>105807</t>
+          <t>105673</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>124934</t>
+          <t>123713</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>71306</t>
+          <t>72488</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>91192</t>
+          <t>91875</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>183974</t>
+          <t>184939</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>213440</t>
+          <t>212652</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>66,03%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13750</t>
+          <t>13429</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25753</t>
+          <t>26843</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40718</t>
+          <t>38854</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56441</t>
+          <t>56311</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>57153</t>
+          <t>56924</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77657</t>
+          <t>77505</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>52,43%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27956</t>
+          <t>26866</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39959</t>
+          <t>40280</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37663</t>
+          <t>37793</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>53386</t>
+          <t>55250</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>70156</t>
+          <t>70308</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>90660</t>
+          <t>90889</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>61,33%</t>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4668</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11852</t>
+          <t>12276</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20395</t>
+          <t>20577</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>31838</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26854</t>
+          <t>26722</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>41243</t>
+          <t>41681</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>42,16%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24695</t>
+          <t>24271</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31879</t>
+          <t>32095</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,57%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30472</t>
+          <t>30293</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>41915</t>
+          <t>41733</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>57615</t>
+          <t>57177</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>72004</t>
+          <t>72136</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>171218</t>
+          <t>172673</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>206716</t>
+          <t>208642</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>276751</t>
+          <t>274644</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>316148</t>
+          <t>315508</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>458224</t>
+          <t>457414</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>512418</t>
+          <t>511247</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>35,75%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>472132</t>
+          <t>470206</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>507630</t>
+          <t>506175</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>435050</t>
+          <t>435690</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>474447</t>
+          <t>476554</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>917628</t>
+          <t>918799</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>971822</t>
+          <t>972632</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>68,01%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11107</t>
+          <t>74675</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8610</t>
+          <t>59768</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14207</t>
+          <t>93635</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18709</t>
+          <t>114004</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15319</t>
+          <t>99816</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22270</t>
+          <t>129071</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>238</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>29816</t>
+          <t>188679</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>25380</t>
+          <t>167772</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34754</t>
+          <t>213813</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>29,57%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>151694</t>
+          <t>320712</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>148594</t>
+          <t>301752</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>154191</t>
+          <t>335619</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>291</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>149858</t>
+          <t>213622</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>146297</t>
+          <t>198555</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>153248</t>
+          <t>227810</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>60,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>616</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>301552</t>
+          <t>534334</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>296614</t>
+          <t>509200</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>305988</t>
+          <t>555241</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>76,8%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7132</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>52354</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9771</t>
+          <t>81208</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13313</t>
+          <t>89766</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10829</t>
+          <t>77809</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16394</t>
+          <t>104694</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>20445</t>
+          <t>155584</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>17018</t>
+          <t>135606</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>24606</t>
+          <t>174091</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>27,58%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83293</t>
+          <t>278529</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80654</t>
+          <t>263139</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85301</t>
+          <t>291993</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>109355</t>
+          <t>197174</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>106274</t>
+          <t>182246</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>111839</t>
+          <t>209131</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>68,72%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>522</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>192648</t>
+          <t>475703</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>188487</t>
+          <t>457196</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>196075</t>
+          <t>495681</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>78,52%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18866</t>
+          <t>80912</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15574</t>
+          <t>66613</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22561</t>
+          <t>98753</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16087</t>
+          <t>53898</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13215</t>
+          <t>44831</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19415</t>
+          <t>62928</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>156</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34953</t>
+          <t>134811</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30625</t>
+          <t>117426</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40314</t>
+          <t>155256</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>135018</t>
+          <t>179644</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>131323</t>
+          <t>161803</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>138310</t>
+          <t>193943</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>62,1%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45530</t>
+          <t>57588</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42202</t>
+          <t>48558</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48402</t>
+          <t>66655</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>268</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>180548</t>
+          <t>237232</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>175187</t>
+          <t>216787</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>184876</t>
+          <t>254617</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>63,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>68,44%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26941</t>
+          <t>167905</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23213</t>
+          <t>147007</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31293</t>
+          <t>195705</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36277</t>
+          <t>192759</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32087</t>
+          <t>174425</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42205</t>
+          <t>213195</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>451</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>63218</t>
+          <t>360663</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>57234</t>
+          <t>328589</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>69940</t>
+          <t>391056</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>35,55%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142778</t>
+          <t>442077</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138426</t>
+          <t>414277</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>146506</t>
+          <t>462975</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>72,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>145913</t>
+          <t>297394</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>139985</t>
+          <t>276958</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>150103</t>
+          <t>315728</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>60,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>782</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>288691</t>
+          <t>739472</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>281969</t>
+          <t>709079</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>294675</t>
+          <t>771546</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>80,13%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>70,13%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10938</t>
+          <t>60942</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8342</t>
+          <t>45604</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13896</t>
+          <t>76381</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>304</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35444</t>
+          <t>204222</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31338</t>
+          <t>185667</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>40215</t>
+          <t>220779</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>50,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>362</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>46381</t>
+          <t>265164</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40999</t>
+          <t>241203</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>51623</t>
+          <t>288722</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>43,66%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63513</t>
+          <t>192399</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>60555</t>
+          <t>176960</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66109</t>
+          <t>207737</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>281</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>89972</t>
+          <t>203797</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85201</t>
+          <t>187240</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>94078</t>
+          <t>222352</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,01%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>455</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>153486</t>
+          <t>396197</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>148244</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>158868</t>
+          <t>420158</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>56,34%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>63,53%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>21868</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>9918</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>37986</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22763</t>
+          <t>195921</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19331</t>
+          <t>173823</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26632</t>
+          <t>217358</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>309</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>25655</t>
+          <t>217789</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21631</t>
+          <t>191824</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>30010</t>
+          <t>243253</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>33,96%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>52711</t>
+          <t>147629</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50644</t>
+          <t>131511</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54020</t>
+          <t>159579</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>99838</t>
+          <t>350953</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>95969</t>
+          <t>329516</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>103270</t>
+          <t>373051</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>467</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>152549</t>
+          <t>498582</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>148194</t>
+          <t>473118</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156573</t>
+          <t>524547</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>73,22%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>77875</t>
+          <t>472121</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>70101</t>
+          <t>432373</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>85196</t>
+          <t>515370</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>142593</t>
+          <t>850570</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>133017</t>
+          <t>809344</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>151559</t>
+          <t>892708</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>220468</t>
+          <t>1322691</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>208676</t>
+          <t>1261896</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>232833</t>
+          <t>1382750</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>629008</t>
+          <t>1560989</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>621687</t>
+          <t>1517740</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>636782</t>
+          <t>1600737</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>640466</t>
+          <t>1320529</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>631500</t>
+          <t>1278391</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>650042</t>
+          <t>1361755</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7124</t>
+          <t>3110</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1269473</t>
+          <t>2881518</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1257108</t>
+          <t>2821459</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1281265</t>
+          <t>2942313</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>69,98%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66315</t>
+          <t>49148</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52133</t>
+          <t>41428</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83057</t>
+          <t>57600</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>107192</t>
+          <t>57117</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>94130</t>
+          <t>49218</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>121283</t>
+          <t>65800</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>309</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>173506</t>
+          <t>106265</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>154177</t>
+          <t>94101</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>195976</t>
+          <t>116768</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>28,1%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>300368</t>
+          <t>156013</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>283626</t>
+          <t>147561</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>314550</t>
+          <t>163733</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>191709</t>
+          <t>153279</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>177618</t>
+          <t>144596</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>204771</t>
+          <t>161178</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>72,85%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>904</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>492078</t>
+          <t>309292</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>469608</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>511407</t>
+          <t>321456</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>77,36%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>599</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205161</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415557</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415557</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415557</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65125</t>
+          <t>30364</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51898</t>
+          <t>24212</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80244</t>
+          <t>36958</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82473</t>
+          <t>58254</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71227</t>
+          <t>49899</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97280</t>
+          <t>67088</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>229</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>147598</t>
+          <t>88618</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127823</t>
+          <t>78126</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>165612</t>
+          <t>99010</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>258922</t>
+          <t>94584</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>243803</t>
+          <t>87990</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>272149</t>
+          <t>100736</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>177608</t>
+          <t>109821</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>100987</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>188854</t>
+          <t>118176</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>498</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>436530</t>
+          <t>204405</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>418516</t>
+          <t>194013</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>456305</t>
+          <t>214897</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>71,65%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>73,34%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>427</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168075</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168075</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168075</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4018,17 +4018,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293023</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293023</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293023</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70064</t>
+          <t>35844</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19513</t>
+          <t>28724</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>153511</t>
+          <t>43907</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47313</t>
+          <t>28866</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38832</t>
+          <t>22908</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55553</t>
+          <t>35170</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>146</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>117377</t>
+          <t>64710</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>45989</t>
+          <t>55470</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>213983</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>48,18%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>405360</t>
+          <t>59497</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>321913</t>
+          <t>51434</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>455911</t>
+          <t>66617</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,71%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50251</t>
+          <t>28538</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42011</t>
+          <t>22234</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58732</t>
+          <t>34496</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>455611</t>
+          <t>88035</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>359005</t>
+          <t>79152</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>526999</t>
+          <t>97275</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>79,51%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>63,68%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>95341</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>95341</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>95341</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152745</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152745</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>152745</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>153145</t>
+          <t>47234</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>133600</t>
+          <t>39429</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>178805</t>
+          <t>57469</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>375409</t>
+          <t>76620</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>242543</t>
+          <t>67033</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>539197</t>
+          <t>86420</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>260</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>528554</t>
+          <t>123854</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>378802</t>
+          <t>109399</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>772701</t>
+          <t>137112</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>65,89%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>383010</t>
+          <t>115908</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>357350</t>
+          <t>105673</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>402555</t>
+          <t>123713</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>261229</t>
+          <t>82288</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>97441</t>
+          <t>72488</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>394095</t>
+          <t>91875</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>408</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>644239</t>
+          <t>198197</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>400092</t>
+          <t>184939</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>793991</t>
+          <t>212652</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>61,54%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>66,03%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>52670</t>
+          <t>19145</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39112</t>
+          <t>13429</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66869</t>
+          <t>26843</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>184958</t>
+          <t>48477</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>110405</t>
+          <t>38854</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>227541</t>
+          <t>56311</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>237628</t>
+          <t>67622</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>160081</t>
+          <t>56924</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>276413</t>
+          <t>77505</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>52,43%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>158552</t>
+          <t>34564</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>144353</t>
+          <t>26866</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>172110</t>
+          <t>40280</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>64,35%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>238991</t>
+          <t>45627</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>196408</t>
+          <t>37793</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>313544</t>
+          <t>55250</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>48,49%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>158</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>397543</t>
+          <t>80191</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>358758</t>
+          <t>70308</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>475090</t>
+          <t>90889</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>56,48%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25696</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10688</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45457</t>
+          <t>12276</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>178556</t>
+          <t>25996</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>158112</t>
+          <t>20577</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>198923</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>204253</t>
+          <t>33741</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>179763</t>
+          <t>26722</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>229987</t>
+          <t>41681</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>42,16%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>141065</t>
+          <t>28802</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>121304</t>
+          <t>24271</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>156073</t>
+          <t>32095</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>84,59%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>311412</t>
+          <t>36314</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>291045</t>
+          <t>30293</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>331856</t>
+          <t>41733</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>160</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>452476</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>426742</t>
+          <t>57177</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>476966</t>
+          <t>72136</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>433015</t>
+          <t>189480</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>272456</t>
+          <t>172673</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>508233</t>
+          <t>208642</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>715</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>975901</t>
+          <t>295331</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>824121</t>
+          <t>274644</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1331304</t>
+          <t>315508</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1408916</t>
+          <t>484811</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1188731</t>
+          <t>457414</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1848579</t>
+          <t>511247</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>35,75%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1647277</t>
+          <t>489368</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1572059</t>
+          <t>470206</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1807836</t>
+          <t>506175</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>69,27%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1231200</t>
+          <t>455867</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>875797</t>
+          <t>435690</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1382980</t>
+          <t>476554</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>60,69%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>58,0%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2878477</t>
+          <t>945235</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2438814</t>
+          <t>918799</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3098662</t>
+          <t>972632</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>68,01%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>678848</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>678848</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>678848</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>751198</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>751198</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>751198</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>1430046</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>1430046</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>1430046</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49148</t>
+          <t>11107</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41428</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57600</t>
+          <t>14207</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57117</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>49218</t>
+          <t>15319</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>65800</t>
+          <t>22270</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>162</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>106265</t>
+          <t>29816</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>94101</t>
+          <t>25380</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>116768</t>
+          <t>34754</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>793</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156013</t>
+          <t>151694</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>147561</t>
+          <t>148594</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>163733</t>
+          <t>154191</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>778</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>153279</t>
+          <t>149858</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>144596</t>
+          <t>146297</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>161178</t>
+          <t>153248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>68,73%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>1571</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>309292</t>
+          <t>301552</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>296614</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>321456</t>
+          <t>305988</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,36%</t>
+          <t>92,34%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205161</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>415557</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415557</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>415557</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30364</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24212</t>
+          <t>5124</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36958</t>
+          <t>9771</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58254</t>
+          <t>13313</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49899</t>
+          <t>10829</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67088</t>
+          <t>16394</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>88618</t>
+          <t>20445</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>78126</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>99010</t>
+          <t>24606</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94584</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87990</t>
+          <t>80654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100736</t>
+          <t>85301</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>592</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>109821</t>
+          <t>109355</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100987</t>
+          <t>106274</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118176</t>
+          <t>111839</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>204405</t>
+          <t>192648</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>194013</t>
+          <t>188487</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>214897</t>
+          <t>196075</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>92,01%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168075</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168075</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168075</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293023</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293023</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293023</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35844</t>
+          <t>18866</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28724</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43907</t>
+          <t>22561</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28866</t>
+          <t>16087</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22908</t>
+          <t>13215</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35170</t>
+          <t>19415</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>201</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>64710</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>55470</t>
+          <t>30625</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>73593</t>
+          <t>40314</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59497</t>
+          <t>135018</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51434</t>
+          <t>131323</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66617</t>
+          <t>138310</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>278</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28538</t>
+          <t>45530</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22234</t>
+          <t>42202</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34496</t>
+          <t>48402</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>88035</t>
+          <t>180548</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>79152</t>
+          <t>175187</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>97275</t>
+          <t>184876</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>51,82%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>63,68%</t>
+          <t>85,79%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95341</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95341</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95341</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>152745</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>152745</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>152745</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47234</t>
+          <t>26941</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39429</t>
+          <t>23213</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57469</t>
+          <t>31293</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76620</t>
+          <t>36277</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67033</t>
+          <t>32087</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86420</t>
+          <t>42205</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>123854</t>
+          <t>63218</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>109399</t>
+          <t>57234</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>137112</t>
+          <t>69940</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>847</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>115908</t>
+          <t>142778</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>105673</t>
+          <t>138426</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>123713</t>
+          <t>146506</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>830</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>82288</t>
+          <t>145913</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>72488</t>
+          <t>139985</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>91875</t>
+          <t>150103</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>198197</t>
+          <t>288691</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>184939</t>
+          <t>281969</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>212652</t>
+          <t>294675</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>83,74%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19145</t>
+          <t>10938</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13429</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26843</t>
+          <t>13896</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48477</t>
+          <t>35444</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38854</t>
+          <t>31338</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56311</t>
+          <t>40215</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>269</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>67622</t>
+          <t>46381</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>56924</t>
+          <t>40999</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77505</t>
+          <t>51623</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>25,83%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34564</t>
+          <t>63513</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26866</t>
+          <t>60555</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40280</t>
+          <t>66109</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>539</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45627</t>
+          <t>89972</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37793</t>
+          <t>85201</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55250</t>
+          <t>94078</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>928</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>80191</t>
+          <t>153486</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>70308</t>
+          <t>148244</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>90889</t>
+          <t>158868</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>79,49%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12276</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25996</t>
+          <t>22763</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20577</t>
+          <t>19331</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>26632</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>148</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>33741</t>
+          <t>25655</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26722</t>
+          <t>21631</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>41681</t>
+          <t>30010</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>28802</t>
+          <t>52711</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24271</t>
+          <t>50644</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32095</t>
+          <t>54020</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>558</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>36314</t>
+          <t>99838</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30293</t>
+          <t>95969</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>41733</t>
+          <t>103270</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,98%</t>
+          <t>84,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>813</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>65117</t>
+          <t>152549</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>57177</t>
+          <t>148194</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>72136</t>
+          <t>156573</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>87,86%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>189480</t>
+          <t>77875</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>172673</t>
+          <t>70101</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>208642</t>
+          <t>85196</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>821</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>295331</t>
+          <t>142593</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>274644</t>
+          <t>133017</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>315508</t>
+          <t>151559</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>484811</t>
+          <t>220468</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>457414</t>
+          <t>208676</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>511247</t>
+          <t>232833</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>489368</t>
+          <t>629008</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>470206</t>
+          <t>621687</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>506175</t>
+          <t>636782</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>455867</t>
+          <t>640466</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>435690</t>
+          <t>631500</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>476554</t>
+          <t>650042</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>83,01%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>7124</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>945235</t>
+          <t>1269473</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>918799</t>
+          <t>1257108</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>972632</t>
+          <t>1281265</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>66,1%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>85,99%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>678848</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>678848</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>678848</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>751198</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>751198</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>751198</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1430046</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1430046</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1430046</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
